--- a/ST - Steering System/Cost/Bon_cost_steering.xlsx
+++ b/ST - Steering System/Cost/Bon_cost_steering.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ST_A0100" sheetId="1" r:id="rId1"/>
     <sheet name="ST_01001" sheetId="2" r:id="rId2"/>
     <sheet name="ST_01002" sheetId="3" r:id="rId3"/>
+    <sheet name="ST_01003" sheetId="4" r:id="rId4"/>
+    <sheet name="ST_01004" sheetId="5" r:id="rId5"/>
+    <sheet name="ST_01005" sheetId="6" r:id="rId6"/>
+    <sheet name="ST_01006" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="109">
   <si>
     <t>University</t>
   </si>
@@ -213,24 +217,6 @@
     <t>ST_01001</t>
   </si>
   <si>
-    <t>Steering Column Universal Joint</t>
-  </si>
-  <si>
-    <t>Paint</t>
-  </si>
-  <si>
-    <t>Paint the steering mount</t>
-  </si>
-  <si>
-    <t>m^2</t>
-  </si>
-  <si>
-    <t>Bearing, Ball, Radial</t>
-  </si>
-  <si>
-    <t>Guide the first column</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
@@ -271,6 +257,96 @@
   </si>
   <si>
     <t>To machin the other end</t>
+  </si>
+  <si>
+    <t>Manque les dents à faire</t>
+  </si>
+  <si>
+    <t>Lower Pinion housing</t>
+  </si>
+  <si>
+    <t>ST_01003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectangular area </t>
+  </si>
+  <si>
+    <t>Stock for the part</t>
+  </si>
+  <si>
+    <t>Aluminum, Normal</t>
+  </si>
+  <si>
+    <t>Upper Pinion housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machining of the first face </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machining of the second face </t>
+  </si>
+  <si>
+    <t>Material - Aluminium</t>
+  </si>
+  <si>
+    <t>Threading, Internal (machining)</t>
+  </si>
+  <si>
+    <t>For the 4 holes</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>Machining of a beveal</t>
+  </si>
+  <si>
+    <t>Bearing, Needle</t>
+  </si>
+  <si>
+    <t>To guide the rack en the rack housing</t>
+  </si>
+  <si>
+    <t>Rack housing support</t>
+  </si>
+  <si>
+    <t>Circular area 33mm diameter</t>
+  </si>
+  <si>
+    <t>ST_01005</t>
+  </si>
+  <si>
+    <t>ST_01004</t>
+  </si>
+  <si>
+    <t>2 parts made from a single setup</t>
+  </si>
+  <si>
+    <t>First machining</t>
+  </si>
+  <si>
+    <t>for the other side</t>
+  </si>
+  <si>
+    <t>Tie rod Braces</t>
+  </si>
+  <si>
+    <t>Manque peinture</t>
+  </si>
+  <si>
+    <t>Manque Peinture</t>
+  </si>
+  <si>
+    <t>Circular area 26mm diameter</t>
+  </si>
+  <si>
+    <t>For the planes and the center</t>
+  </si>
+  <si>
+    <t>Second machining</t>
+  </si>
+  <si>
+    <t>Installation on a CNC machine</t>
   </si>
 </sst>
 </file>
@@ -284,10 +360,10 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +429,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +454,17 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,7 +590,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,8 +599,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="8">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -587,7 +685,7 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -595,20 +693,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
+    <cellStyle name="Cost_Yellow" xfId="9"/>
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Milliers 2" xfId="4"/>
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Monétaire 10" xfId="3"/>
     <cellStyle name="Monétaire 2" xfId="6"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal_Sheet1" xfId="7"/>
@@ -621,6 +751,270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25961</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109543</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407961" y="2910841"/>
+          <a:ext cx="1912382" cy="2392680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144779</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66326</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604759" y="3101339"/>
+          <a:ext cx="2969547" cy="2103561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>602407</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9281160" y="2436538"/>
+          <a:ext cx="3322747" cy="2547269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117612</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9566412" y="2598421"/>
+          <a:ext cx="2511288" cy="2264643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563696</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>716279</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8800916" y="2705099"/>
+          <a:ext cx="2530023" cy="2619071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>269978</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402298" y="2705100"/>
+          <a:ext cx="3578122" cy="2390886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,7 +1307,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,11 +1564,24 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="A11" s="9">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="11">
+        <f>ST_01003!N5</f>
+        <v>2.5406556</v>
+      </c>
+      <c r="D11" s="12">
+        <f>ST_01003!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <f>C11*D11</f>
+        <v>2.5406556</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1186,11 +1593,23 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="9">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11">
+        <f>ST_01004!N5</f>
+        <v>6.1716180440000006</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <f>D12*C12</f>
+        <v>6.1716180440000006</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1202,11 +1621,24 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="9">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="11">
+        <f>ST_01005!N5</f>
+        <v>5.2912630330444799</v>
+      </c>
+      <c r="D13" s="12">
+        <f>ST_01005!N3</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <f>C13*D13</f>
+        <v>10.58252606608896</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1218,11 +1650,24 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="55">
+        <v>60</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="82">
+        <f>ST_01006!N5</f>
+        <v>4.9496060624435199</v>
+      </c>
+      <c r="D14" s="83">
+        <f>ST_01006!N3</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="84">
+        <f>C14*D14</f>
+        <v>9.8992121248870397</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1237,8 +1682,8 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1257,8 +1702,8 @@
         <v>24</v>
       </c>
       <c r="E16" s="16">
-        <f>SUM(E9:E13)</f>
-        <v>11.354510196</v>
+        <f>SUM(E9:E14)</f>
+        <v>40.548522030976002</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1314,103 +1759,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="55">
         <v>10</v>
       </c>
       <c r="B20" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="75">
+        <f>0.00012*E20*G20+13.1</f>
+        <v>13.260199999999999</v>
+      </c>
+      <c r="E20" s="9">
+        <v>53.4</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="11">
-        <v>20</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="32"/>
+      <c r="G20" s="9">
+        <v>25</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="I20" s="56"/>
       <c r="J20" s="12"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
       <c r="M20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="36">
-        <f>IF(J20="",D20*M20,D20*J20*K20*L20*M20)</f>
-        <v>20</v>
+        <f>M20*D20</f>
+        <v>26.520399999999999</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="11">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="32"/>
       <c r="I21" s="56"/>
       <c r="J21" s="12"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="58">
-        <v>1.6E-2</v>
-      </c>
-      <c r="N21" s="36">
-        <f>IF(J21="",D21*M21,D21*J21*K21*L21*M21)</f>
-        <v>0.16</v>
-      </c>
+      <c r="M21" s="58"/>
+      <c r="N21" s="36"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="11">
-        <f>0.1*((E22^2*G22))^(0.5)</f>
-        <v>18.708286933869708</v>
-      </c>
-      <c r="E22" s="9">
-        <v>50</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="9">
-        <v>14</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>71</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="56"/>
       <c r="J22" s="12"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="12">
-        <v>2</v>
-      </c>
-      <c r="N22" s="36">
-        <f>IF(J22="",D22*M22,D22*J22*K22*L22*M22)</f>
-        <v>37.416573867739416</v>
-      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="59"/>
@@ -1430,7 +1847,7 @@
       </c>
       <c r="N23" s="16">
         <f>SUM(N20:N22)</f>
-        <v>57.576573867739413</v>
+        <v>26.520399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1582,7 +1999,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>31</v>
@@ -1614,10 +2031,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D38" s="11">
         <f>0.8/105154*E38^2*G38*SQRT(G38)+(0.003*EXP(0.319*E38))</f>
@@ -1627,13 +2044,13 @@
         <v>5</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G38" s="9">
         <v>6.5</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I38" s="62">
         <v>4</v>
@@ -1648,10 +2065,10 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D39" s="11">
         <f>0.8/105154*E39^2*G39*SQRT(G39)+(0.003*EXP(0.319*E39))</f>
@@ -1661,13 +2078,13 @@
         <v>8</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G39" s="9">
         <v>11</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I39" s="62">
         <v>1</v>
@@ -1699,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -1714,10 +2131,10 @@
         <v>23</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>24</v>
@@ -1755,6 +2172,10 @@
     <hyperlink ref="D1" location="BOM!A1" display="Back to BOM"/>
     <hyperlink ref="B9" location="ST_01001!A1" display="Rack Pinion"/>
     <hyperlink ref="B10" location="ST_01002!A1" display="Rack"/>
+    <hyperlink ref="B11" location="ST_01003!A1" display="Upper Pinion housing"/>
+    <hyperlink ref="B12" location="ST_01004!A1" display="Lower Pinion housing"/>
+    <hyperlink ref="B13" location="ST_01005!A1" display="Rack housing support"/>
+    <hyperlink ref="B14" location="ST_01006!A1" display="Tie rod Braces"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1765,7 +2186,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I22"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,15 +2801,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N24"/>
+  <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2639,7 +3061,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D11" s="30">
         <v>2.25</v>
@@ -2758,7 +3180,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" s="50">
         <v>0.04</v>
@@ -2781,15 +3203,15 @@
         <v>0.108573696</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>30</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D17" s="50">
         <v>0.1</v>
@@ -2807,7 +3229,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>40</v>
       </c>
@@ -2815,7 +3237,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D18" s="50">
         <v>0.65</v>
@@ -2832,8 +3254,11 @@
         <f>IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>50</v>
       </c>
@@ -2841,7 +3266,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D19" s="50">
         <v>0.04</v>
@@ -2864,15 +3289,15 @@
         <v>0.108573696</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>60</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D20" s="50">
         <v>0.1</v>
@@ -2890,7 +3315,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="48"/>
       <c r="C21" s="46"/>
@@ -2901,10 +3326,12 @@
       <c r="H21" s="46"/>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="50"/>
       <c r="E22" s="48"/>
       <c r="F22" s="46"/>
@@ -2912,7 +3339,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="47"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
@@ -2923,7 +3350,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -2945,5 +3372,2359 @@
     <hyperlink ref="B4" location="ST_A0100!A1" display="Steering Rack "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="20">
+        <v>81</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="21">
+        <f>N12+I19</f>
+        <v>2.5406556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21">
+        <f>N2*N3</f>
+        <v>2.5406556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="68">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="69">
+        <f>J11*K11*L11</f>
+        <v>5.4917999999999995E-2</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="72">
+        <f>0.045*0.05</f>
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="K11" s="70">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="73">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="73">
+        <v>1</v>
+      </c>
+      <c r="N11" s="74">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>0.23065559999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="39">
+        <f>SUM(N11:N11)</f>
+        <v>0.23065559999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="46">
+        <v>10</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="46">
+        <v>1</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>20</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="51">
+        <f>0.75*0.001*10^4</f>
+        <v>7.5</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="46">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
+        <f>D16*F16*H16</f>
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>30</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="46">
+        <v>1</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>40</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="46">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
+        <f>D18*F18*H18</f>
+        <v>0.06</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="40">
+        <f>SUM(I15:I18)</f>
+        <v>2.31</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="ST_A0100!A1" display="Steering Rack "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="20">
+        <v>81</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="21">
+        <f>N12+I22</f>
+        <v>6.1716180440000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21">
+        <f>N2*N3</f>
+        <v>6.1716180440000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="68">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="69">
+        <f>J11*K11*L11</f>
+        <v>0.23052000000000006</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="72">
+        <f>0.05*0.05</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="K11" s="70">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L11" s="73">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="73">
+        <v>1</v>
+      </c>
+      <c r="N11" s="74">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>0.96818400000000027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="39">
+        <f>SUM(N11:N11)</f>
+        <v>0.96818400000000027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="46">
+        <v>10</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="46">
+        <v>1</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>20</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="51">
+        <f>2.7*1.7^2*3.1416 + 4*0.2^2*3.1416</f>
+        <v>25.016560800000001</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="46">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
+        <f>D16*F16*H16</f>
+        <v>1.0006624319999999</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>30</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="46">
+        <v>6</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47">
+        <f>F17*D17</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="46">
+        <v>40</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="46">
+        <v>1</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>50</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="46">
+        <f>1.165^2*3.1416*5</f>
+        <v>21.319290300000002</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="46">
+        <v>1</v>
+      </c>
+      <c r="I19" s="47">
+        <f>D19*F19*H19</f>
+        <v>0.85277161200000007</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
+        <v>60</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="46">
+        <v>1</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47">
+        <f>IF(H20="",D20*F20,D20*F20*H20)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="46">
+        <v>70</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="46">
+        <f>0.75*5</f>
+        <v>3.75</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="46">
+        <v>1</v>
+      </c>
+      <c r="I21" s="47">
+        <f>IF(H21="",D21*F21,D21*F21*H21)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="40">
+        <f>SUM(I15:I21)</f>
+        <v>5.2034340440000006</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="ST_A0100!A1" display="Steering Rack "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="20">
+        <v>81</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="21">
+        <f>N12+I22</f>
+        <v>2.6456315165222399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21">
+        <f>N2*N3</f>
+        <v>5.2912630330444799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="68">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="69">
+        <f>J11*K11*L11</f>
+        <v>8.8143858633600011E-2</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="72">
+        <f>0.0165^2*3.1416</f>
+        <v>8.5530060000000012E-4</v>
+      </c>
+      <c r="K11" s="70">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L11" s="73">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="73">
+        <v>2</v>
+      </c>
+      <c r="N11" s="74">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>0.7404084125222401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="39">
+        <f>SUM(N11:N11)</f>
+        <v>0.7404084125222401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="46">
+        <v>10</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>20</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="51">
+        <f>3.1416*0.8^2*3.5+(1.65^2-1.05^2)*3.1416*1.3 + (1.65^2-1.15^2)*3.1416*1.6</f>
+        <v>20.690577600000001</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="46">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
+        <f>D16*F16*H16</f>
+        <v>0.82762310400000005</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>30</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>40</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="76">
+        <f>8.55*0.3</f>
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="46">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
+        <f>D18*F18*H18</f>
+        <v>0.1026</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="40">
+        <f>SUM(I15:I21)</f>
+        <v>1.9052231040000001</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="ST_A0100!A1" display="Steering Rack "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="20">
+        <v>81</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="21">
+        <f>N12+I22</f>
+        <v>2.4748030312217599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21">
+        <f>N2*N3</f>
+        <v>4.9496060624435199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="68">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="69">
+        <f>J11*K11*L11</f>
+        <v>6.1914979526399988E-2</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="72">
+        <f>0.013^2*3.1416</f>
+        <v>5.3093039999999991E-4</v>
+      </c>
+      <c r="K11" s="70">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L11" s="73">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="73">
+        <v>2</v>
+      </c>
+      <c r="N11" s="74">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>0.52008582802175984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="39">
+        <f>SUM(N11:N11)</f>
+        <v>0.52008582802175984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="46">
+        <v>10</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>20</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="51">
+        <f>0.8*1.3^2*3.1416 + 0.8*0.4^2*3.1416</f>
+        <v>4.6495680000000013</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="46">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
+        <f>D16*F16*H16</f>
+        <v>0.18598272000000005</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>30</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>40</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="51">
+        <f>0.86*(1.3^2 - 0.6^2)*3.1416</f>
+        <v>3.5933620800000003</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="46">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
+        <f>D18*F18*H18</f>
+        <v>0.14373448320000001</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="46">
+        <v>50</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47">
+        <f>IF(H19="",D19*F19,D19*F19*H19)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
+        <v>60</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="46">
+        <v>1</v>
+      </c>
+      <c r="I20" s="47">
+        <f>D20*F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="40">
+        <f>SUM(I15:I21)</f>
+        <v>1.9547172032</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="ST_A0100!A1" display="Steering Rack "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ST - Steering System/Cost/Bon_cost_steering.xlsx
+++ b/ST - Steering System/Cost/Bon_cost_steering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ST A0100" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,18 @@
     <sheet name="ST 02005" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="BR_A0001_f">'ST A0200'!$J$34</definedName>
+    <definedName name="BR_A0001_f">'ST A0200'!$J$39</definedName>
     <definedName name="BR_A0001_m">'ST A0200'!$N$20</definedName>
-    <definedName name="BR_A0001_p">'ST A0200'!$I$30</definedName>
+    <definedName name="BR_A0001_p">'ST A0200'!$I$35</definedName>
     <definedName name="BR_A0001_pa">'ST A0200'!$E$15</definedName>
-    <definedName name="BR_A0001_t">'ST A0200'!$I$39</definedName>
+    <definedName name="BR_A0001_t">'ST A0200'!$I$48</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="253">
   <si>
     <t>University</t>
   </si>
@@ -685,9 +685,6 @@
     <t>Steering Upper Shaft Pivot</t>
   </si>
   <si>
-    <t>circlip</t>
-  </si>
-  <si>
     <t xml:space="preserve">Circular section : diameter 32mm </t>
   </si>
   <si>
@@ -749,13 +746,70 @@
   </si>
   <si>
     <t>For the other end</t>
+  </si>
+  <si>
+    <t>Welding between the two part 50 and the frame</t>
+  </si>
+  <si>
+    <t>For the process 50, 2 point per weld</t>
+  </si>
+  <si>
+    <t>To apply red paint on the exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weld </t>
+  </si>
+  <si>
+    <t>Welding between the two part 50 and the part 40</t>
+  </si>
+  <si>
+    <t>For the process 60, 2 point per weld</t>
+  </si>
+  <si>
+    <t>Welding between the part 30 and the material 10</t>
+  </si>
+  <si>
+    <t>For the process 70, 2 point per weld</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Interference</t>
+  </si>
+  <si>
+    <t>Assembly of the first material 20 on the part 30</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Line-on-Line</t>
+  </si>
+  <si>
+    <t>Assembly of the steering column in the part 40</t>
+  </si>
+  <si>
+    <t>Assembly of the second material 20 in the part 40</t>
+  </si>
+  <si>
+    <t>Welding between the part 30 and Quick Release</t>
+  </si>
+  <si>
+    <t>Assemble - Length &gt; 0.5m</t>
+  </si>
+  <si>
+    <t>For the process 80, 2 point per weld</t>
+  </si>
+  <si>
+    <t>Retaining Ring, External</t>
+  </si>
+  <si>
+    <t>To retain the material 20 on the part 30</t>
+  </si>
+  <si>
+    <t>To install the fastener 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="23">
+  <numFmts count="22">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -764,23 +818,22 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_-[$$-2809]* #,##0.00_-;\-[$$-2809]* #,##0.00_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="174" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="182" formatCode="0.0000"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="186" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="189" formatCode="_-[$$-2009]* #,##0.00_-;\-[$$-2009]* #,##0.00_-;_-[$$-2009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-2809]* #,##0.00_-;\-[$$-2809]* #,##0.00_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="184" formatCode="_-[$$-2009]* #,##0.00_-;\-[$$-2009]* #,##0.00_-;_-[$$-2009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,14 +932,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -924,7 +969,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1123,19 +1168,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1164,14 +1196,14 @@
     <xf numFmtId="164" fontId="11" fillId="3" borderId="8">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="11">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="11">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="11">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="11">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1267,7 +1299,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1276,7 +1308,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,7 +1342,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1318,7 +1350,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
@@ -1327,13 +1359,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="2" xfId="11" applyBorder="1">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="2" xfId="11" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1341,57 +1373,35 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1414,44 +1424,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="183" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="186" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="186" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Cost_Red" xfId="10"/>
@@ -1479,6 +1500,533 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023860" y="1156606"/>
+          <a:ext cx="3505200" cy="2659799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>671374</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="9388654" cy="6645216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>756384</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449979</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140164" y="2491740"/>
+          <a:ext cx="2863515" cy="2248214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>692812</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="213360"/>
+          <a:ext cx="8617612" cy="6096577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607264</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107067</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9781744" y="2720340"/>
+          <a:ext cx="2669723" cy="2255848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625221</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="205740"/>
+          <a:ext cx="7757541" cy="5464116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9822180" y="2302010"/>
+          <a:ext cx="2834640" cy="2605115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>636033</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10195560" y="2324100"/>
+          <a:ext cx="3485913" cy="1531872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>267150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8427720" y="2538478"/>
+          <a:ext cx="2888430" cy="1828067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190499"/>
+          <a:ext cx="7391400" cy="5227333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533872</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76530</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424632" y="2286000"/>
+          <a:ext cx="2712578" cy="2370108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1527,436 +2075,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>756384</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>449979</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>167954</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8140164" y="2491740"/>
-          <a:ext cx="2863515" cy="2248214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>692812</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>92017</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="213360"/>
-          <a:ext cx="8617612" cy="6096577"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>607264</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>107067</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38428</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9781744" y="2720340"/>
-          <a:ext cx="2669723" cy="2255848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>625221</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>576</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="205740"/>
-          <a:ext cx="7757541" cy="5464116"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152245</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9822180" y="2302010"/>
-          <a:ext cx="2834640" cy="2605115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>636033</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15492</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10195560" y="2324100"/>
-          <a:ext cx="3485913" cy="1531872"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161038</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>267150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>160305</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8427720" y="2538478"/>
-          <a:ext cx="2888430" cy="1828067"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114312</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="190499"/>
-          <a:ext cx="7391400" cy="5227333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533872</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76530</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>84108</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10424632" y="2286000"/>
-          <a:ext cx="2712578" cy="2370108"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1999,7 +2118,56 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>671298</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9845778" y="2918460"/>
+          <a:ext cx="1972842" cy="2126226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2048,56 +2216,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>671298</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106926</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9845778" y="2918460"/>
-          <a:ext cx="1972842" cy="2126226"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2146,7 +2265,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2195,7 +2314,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2244,7 +2363,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2293,7 +2412,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2342,7 +2461,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2380,55 +2499,6 @@
         <a:xfrm>
           <a:off x="7840980" y="2446021"/>
           <a:ext cx="1973579" cy="2167272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>671374</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>61536</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="182880"/>
-          <a:ext cx="9388654" cy="6645216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,7 +2803,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3436,7 +3506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>10</v>
       </c>
@@ -3459,7 +3529,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
-        <f>D29*F29</f>
+        <f t="shared" ref="I29:I48" si="1">D29*F29</f>
         <v>3.0719999999999996</v>
       </c>
     </row>
@@ -3485,7 +3555,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <f>D30*F30</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3511,7 +3581,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="8">
-        <f>D31*F31</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
@@ -3537,7 +3607,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="8">
-        <f>D32*F32</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3563,7 +3633,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="8">
-        <f>D33*F33</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3589,7 +3659,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="8">
-        <f>D34*F34</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3615,7 +3685,7 @@
       <c r="G35" s="46"/>
       <c r="H35" s="46"/>
       <c r="I35" s="8">
-        <f>D35*F35</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3641,7 +3711,7 @@
       <c r="G36" s="46"/>
       <c r="H36" s="46"/>
       <c r="I36" s="8">
-        <f>D36*F36</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
@@ -3667,7 +3737,7 @@
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
       <c r="I37" s="8">
-        <f>D37*F37</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
@@ -3693,7 +3763,7 @@
       <c r="G38" s="46"/>
       <c r="H38" s="46"/>
       <c r="I38" s="8">
-        <f>D38*F38</f>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
@@ -3719,7 +3789,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8">
-        <f>D39*F39</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3745,7 +3815,7 @@
       <c r="G40" s="46"/>
       <c r="H40" s="46"/>
       <c r="I40" s="8">
-        <f>D40*F40</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
@@ -3771,7 +3841,7 @@
       <c r="G41" s="46"/>
       <c r="H41" s="46"/>
       <c r="I41" s="8">
-        <f>D41*F41</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3797,7 +3867,7 @@
       <c r="G42" s="46"/>
       <c r="H42" s="46"/>
       <c r="I42" s="8">
-        <f>D42*F42</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3823,7 +3893,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8">
-        <f>D43*F43</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3849,7 +3919,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8">
-        <f>D44*F44</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3876,7 +3946,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
       <c r="I45" s="8">
-        <f>D45*F45</f>
+        <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -3902,7 +3972,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8">
-        <f>D46*F46</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3928,7 +3998,7 @@
       <c r="G47" s="46"/>
       <c r="H47" s="46"/>
       <c r="I47" s="8">
-        <f>D47*F47</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3954,7 +4024,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="8">
-        <f>D48*F48</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4070,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="8">
-        <f>I53*D53</f>
+        <f t="shared" ref="J53:J60" si="2">I53*D53</f>
         <v>5.6261921089642758E-2</v>
       </c>
     </row>
@@ -4104,7 +4174,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="8">
-        <f>I54*D54</f>
+        <f t="shared" si="2"/>
         <v>0.46869235539237308</v>
       </c>
     </row>
@@ -4131,7 +4201,7 @@
         <v>8</v>
       </c>
       <c r="J55" s="8">
-        <f>I55*D55</f>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
@@ -4161,7 +4231,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="8">
-        <f>I56*D56</f>
+        <f t="shared" si="2"/>
         <v>0.11952420921851573</v>
       </c>
     </row>
@@ -4195,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="8">
-        <f>I57*D57</f>
+        <f t="shared" si="2"/>
         <v>0.19872269182973795</v>
       </c>
     </row>
@@ -4229,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="J58" s="8">
-        <f>I58*D58</f>
+        <f t="shared" si="2"/>
         <v>7.414929772326509E-2</v>
       </c>
     </row>
@@ -4256,7 +4326,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="8">
-        <f>I59*D59</f>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
@@ -4286,7 +4356,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="8">
-        <f>I60*D60</f>
+        <f t="shared" si="2"/>
         <v>8.0119473425728838E-2</v>
       </c>
     </row>
@@ -4429,6 +4499,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5510,7 +5581,7 @@
   <dimension ref="A2:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A12" sqref="A12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6053,16 +6124,17 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A2:N39"/>
+  <dimension ref="A2:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -6093,7 +6165,7 @@
       </c>
       <c r="N2" s="107">
         <f>BR_A0001_pa+BR_A0001_m+BR_A0001_p+BR_A0001_f+BR_A0001_t</f>
-        <v>29.313275953291665</v>
+        <v>37.575775953291661</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -6166,7 +6238,7 @@
       </c>
       <c r="N5" s="112">
         <f>N2*N3</f>
-        <v>29.313275953291665</v>
+        <v>37.575775953291661</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -6212,7 +6284,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="113"/>
       <c r="B8" s="93"/>
-      <c r="C8" s="129"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="93"/>
       <c r="E8" s="93"/>
       <c r="F8" s="93"/>
@@ -6226,19 +6298,19 @@
       <c r="N8" s="93"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="152" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="93"/>
@@ -6252,20 +6324,20 @@
       <c r="N9" s="93"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="114">
+      <c r="A10" s="122">
         <v>10</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="112">
+      <c r="C10" s="123">
         <f>'ST 02001'!N2</f>
         <v>3.6317736866249999</v>
       </c>
-      <c r="D10" s="151">
+      <c r="D10" s="171">
         <v>1</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="123">
         <f>C10*D10</f>
         <v>3.6317736866249999</v>
       </c>
@@ -6280,20 +6352,20 @@
       <c r="N10" s="93"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="114">
+      <c r="A11" s="122">
         <v>20</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="123">
         <f>'ST 02002'!N2</f>
         <v>2.1062500000000002</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="172">
         <v>1</v>
       </c>
-      <c r="E11" s="112">
+      <c r="E11" s="123">
         <f>C11*D11</f>
         <v>2.1062500000000002</v>
       </c>
@@ -6308,20 +6380,20 @@
       <c r="N11" s="109"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="105">
+      <c r="A12" s="122">
         <v>30</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="164">
+      <c r="C12" s="123">
         <f>'ST 02003'!N2</f>
         <v>6.2856945139200011</v>
       </c>
-      <c r="D12" s="106">
+      <c r="D12" s="172">
         <v>1</v>
       </c>
-      <c r="E12" s="112">
+      <c r="E12" s="123">
         <f>C12*D12</f>
         <v>6.2856945139200011</v>
       </c>
@@ -6336,20 +6408,20 @@
       <c r="N12" s="109"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="105">
+      <c r="A13" s="122">
         <v>40</v>
       </c>
-      <c r="B13" s="169" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="164">
+      <c r="B13" s="170" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="123">
         <f>'ST 02004'!N2</f>
         <v>9.1730310028800002</v>
       </c>
-      <c r="D13" s="106">
+      <c r="D13" s="172">
         <v>1</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="123">
         <f>C13*D13</f>
         <v>9.1730310028800002</v>
       </c>
@@ -6364,20 +6436,20 @@
       <c r="N13" s="109"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="105">
+      <c r="A14" s="122">
         <v>50</v>
       </c>
-      <c r="B14" s="169" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="164">
+      <c r="B14" s="170" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="123">
         <f>'ST 02005'!N2</f>
         <v>1.3271904506699999</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="172">
         <v>2</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="123">
         <f>C14*D14</f>
         <v>2.6543809013399997</v>
       </c>
@@ -6429,113 +6501,113 @@
       <c r="N16" s="93"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="165" t="s">
+      <c r="D17" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="165" t="s">
+      <c r="H17" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="165" t="s">
+      <c r="I17" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="165" t="s">
+      <c r="J17" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="165" t="s">
+      <c r="K17" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="165" t="s">
+      <c r="L17" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="165" t="s">
+      <c r="M17" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="165" t="s">
+      <c r="N17" s="152" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="153">
+      <c r="A18" s="141">
         <v>10</v>
       </c>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="154">
+      <c r="C18" s="141"/>
+      <c r="D18" s="142">
         <v>20</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156">
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144">
         <v>1</v>
       </c>
-      <c r="N18" s="154">
+      <c r="N18" s="142">
         <f>M18*D18</f>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="153">
+      <c r="A19" s="141">
         <v>20</v>
       </c>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="154"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="142"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="166" t="s">
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="128">
+      <c r="N20" s="118">
         <f>SUM(N18:N18)</f>
         <v>20</v>
       </c>
@@ -6557,61 +6629,61 @@
       <c r="N21" s="93"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="104" t="s">
+      <c r="H22" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="104" t="s">
+      <c r="I22" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>10</v>
       </c>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="163" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="143">
+      <c r="D23" s="35">
         <v>1.3</v>
       </c>
-      <c r="E23" s="144" t="s">
+      <c r="E23" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="145">
+      <c r="F23" s="31">
         <v>1</v>
       </c>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="146">
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32">
         <f>D23*F23</f>
         <v>1.3</v>
       </c>
@@ -6622,7 +6694,7 @@
       <c r="N23" s="93"/>
     </row>
     <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="114">
+      <c r="A24" s="122">
         <v>20</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -6658,27 +6730,27 @@
       <c r="N24" s="93"/>
     </row>
     <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="114">
+      <c r="A25" s="122">
         <v>30</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="35">
         <v>0.15</v>
       </c>
-      <c r="E25" s="144" t="s">
+      <c r="E25" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="145">
+      <c r="F25" s="31">
         <v>6.2</v>
       </c>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="162">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32">
         <f>6.2*D25</f>
         <v>0.92999999999999994</v>
       </c>
@@ -6689,27 +6761,27 @@
       <c r="N25" s="93"/>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="114">
+      <c r="A26" s="122">
         <v>40</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="163" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="35">
         <v>0.15</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="E26" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="145">
+      <c r="F26" s="31">
         <v>6.2</v>
       </c>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="162">
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32">
         <f>6.2*D26</f>
         <v>0.92999999999999994</v>
       </c>
@@ -6719,178 +6791,273 @@
       <c r="M26" s="109"/>
       <c r="N26" s="109"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="105"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="177"/>
+    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>50</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="31">
+        <v>10</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32">
+        <f>F27*D27</f>
+        <v>1.5</v>
+      </c>
       <c r="J27" s="109"/>
       <c r="K27" s="109"/>
       <c r="L27" s="109"/>
       <c r="M27" s="109"/>
       <c r="N27" s="109"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="105"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="177"/>
+    <row r="28" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="122">
+        <v>60</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="31">
+        <v>6.4</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32">
+        <f>D28*F28</f>
+        <v>0.96</v>
+      </c>
       <c r="J28" s="109"/>
       <c r="K28" s="109"/>
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
       <c r="N28" s="109"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="177"/>
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="122">
+        <v>70</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="163" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="31">
+        <v>6.4</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32">
+        <f>D29*F29</f>
+        <v>0.96</v>
+      </c>
       <c r="J29" s="109"/>
       <c r="K29" s="109"/>
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
       <c r="N29" s="109"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="120"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="117" t="s">
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>80</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="163" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="31">
+        <v>8</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32">
+        <f>D30*F30</f>
+        <v>1.2</v>
+      </c>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="122">
+        <v>90</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="163" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="164">
+        <v>0.1875</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32">
+        <f>F31*D31</f>
+        <v>0.1875</v>
+      </c>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+    </row>
+    <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="122">
+        <v>100</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="163" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="164">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="I32" s="32">
+        <f>F32*D32*H32</f>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="122">
+        <v>110</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="163" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="164">
+        <v>0.1875</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32">
+        <f>F33*D33</f>
+        <v>0.1875</v>
+      </c>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="122">
+        <v>120</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="163" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="164">
+        <v>0.13</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="31">
+        <v>1</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="32">
+        <f>F34*D34</f>
+        <v>0.13</v>
+      </c>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="118">
-        <f>SUM(I23:I25)</f>
-        <v>2.9085855999999994</v>
-      </c>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="113"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="114">
-        <v>10</v>
-      </c>
-      <c r="B33" s="122" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="120"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="118">
-        <f>SUM(J33:J33)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
+      <c r="I35" s="118">
+        <f>SUM(I23:I33)</f>
+        <v>8.9960855999999989</v>
+      </c>
       <c r="J35" s="93"/>
       <c r="K35" s="93"/>
       <c r="L35" s="93"/>
@@ -6898,129 +7065,392 @@
       <c r="N35" s="93"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="121"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
       <c r="K36" s="93"/>
       <c r="L36" s="93"/>
       <c r="M36" s="93"/>
       <c r="N36" s="93"/>
     </row>
-    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="39">
-        <v>10</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="92">
-        <v>500</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="7">
-        <v>2</v>
-      </c>
-      <c r="G37" s="7">
-        <v>3000</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="24">
-        <f>F37*D37/G37</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J37" s="121"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="152" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="152" t="s">
+        <v>23</v>
+      </c>
       <c r="K37" s="93"/>
       <c r="L37" s="93"/>
       <c r="M37" s="93"/>
       <c r="N37" s="93"/>
     </row>
-    <row r="38" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="39">
-        <v>20</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="92">
-        <v>500</v>
-      </c>
-      <c r="E38" s="7">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="122">
+        <v>10</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="165" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="166">
+        <f>0.00018*(E38^2)+0.013</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="E38" s="167">
+        <v>30</v>
+      </c>
+      <c r="F38" s="168" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="169">
         <v>1</v>
       </c>
-      <c r="F38" s="7">
-        <v>2</v>
-      </c>
-      <c r="G38" s="7">
-        <v>3000</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="24">
-        <f>F38*D38/G38</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J38" s="109"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
+      <c r="J38" s="123">
+        <f>I38*D38</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="120"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="127" t="s">
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="128">
-        <f>SUM(I37:I38)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J39" s="121"/>
+      <c r="J39" s="118">
+        <f>SUM(J38:J38)</f>
+        <v>0.17500000000000002</v>
+      </c>
       <c r="K39" s="93"/>
       <c r="L39" s="93"/>
       <c r="M39" s="93"/>
       <c r="N39" s="93"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="113"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="152" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="152" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="115"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="39">
+        <v>10</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="92">
+        <v>500</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1</v>
+      </c>
+      <c r="F42" s="39">
+        <v>2</v>
+      </c>
+      <c r="G42" s="39">
+        <v>3000</v>
+      </c>
+      <c r="H42" s="39">
+        <v>1</v>
+      </c>
+      <c r="I42" s="55">
+        <f>F42*D42/G42</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J42" s="115"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+    </row>
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="39">
+        <v>20</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="92">
+        <v>500</v>
+      </c>
+      <c r="E43" s="39">
+        <v>1</v>
+      </c>
+      <c r="F43" s="39">
+        <v>2</v>
+      </c>
+      <c r="G43" s="39">
+        <v>3000</v>
+      </c>
+      <c r="H43" s="39">
+        <v>1</v>
+      </c>
+      <c r="I43" s="55">
+        <f>F43*D43/G43</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J43" s="109"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+    </row>
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="39">
+        <v>30</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="92">
+        <v>500</v>
+      </c>
+      <c r="E44" s="39">
+        <v>1</v>
+      </c>
+      <c r="F44" s="39">
+        <v>2</v>
+      </c>
+      <c r="G44" s="39">
+        <v>3000</v>
+      </c>
+      <c r="H44" s="39">
+        <v>1</v>
+      </c>
+      <c r="I44" s="55">
+        <f>F44*D44/G44</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J44" s="109"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+    </row>
+    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="39">
+        <v>40</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="92">
+        <v>500</v>
+      </c>
+      <c r="E45" s="39">
+        <v>1</v>
+      </c>
+      <c r="F45" s="39">
+        <v>4</v>
+      </c>
+      <c r="G45" s="39">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="39">
+        <v>1</v>
+      </c>
+      <c r="I45" s="55">
+        <f>F45*D45/G45</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J45" s="109"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+    </row>
+    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="39">
+        <v>50</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="92">
+        <v>500</v>
+      </c>
+      <c r="E46" s="39">
+        <v>1</v>
+      </c>
+      <c r="F46" s="39">
+        <v>4</v>
+      </c>
+      <c r="G46" s="39">
+        <v>3000</v>
+      </c>
+      <c r="H46" s="39">
+        <v>1</v>
+      </c>
+      <c r="I46" s="55">
+        <f>F46*D46/G46</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J46" s="109"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="39">
+        <v>60</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="92">
+        <v>500</v>
+      </c>
+      <c r="E47" s="39">
+        <v>1</v>
+      </c>
+      <c r="F47" s="39">
+        <v>2</v>
+      </c>
+      <c r="G47" s="39">
+        <v>3000</v>
+      </c>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
+      <c r="I47" s="55">
+        <f>F47*D47/G47</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J47" s="109"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="114"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="118">
+        <f>SUM(I42:I47)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J48" s="115"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7091,7 +7521,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="130"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -7282,41 +7712,41 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="133">
+      <c r="D11" s="123">
         <v>2.25</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="124">
         <f>J11*K11*L11</f>
         <v>0.1156010625</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="138">
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="128">
         <f xml:space="preserve"> 3.1416*12.5^2*10^-6</f>
         <v>4.9087499999999999E-4</v>
       </c>
-      <c r="K11" s="139">
+      <c r="K11" s="129">
         <v>0.03</v>
       </c>
-      <c r="L11" s="131">
+      <c r="L11" s="121">
         <v>7850</v>
       </c>
-      <c r="M11" s="140">
+      <c r="M11" s="130">
         <v>1</v>
       </c>
-      <c r="N11" s="133">
+      <c r="N11" s="123">
         <f>D11*E11</f>
         <v>0.26010239062500001</v>
       </c>
@@ -7396,24 +7826,24 @@
       <c r="A15" s="31">
         <v>10</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="133">
         <v>1.3</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="145">
+      <c r="F15" s="135">
         <v>1</v>
       </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="146">
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="136">
         <f>D15*F15</f>
         <v>1.3</v>
       </c>
@@ -7424,16 +7854,16 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="145">
+      <c r="A16" s="135">
         <v>20</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="131" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="133">
         <v>0.35</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -7444,7 +7874,7 @@
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="146">
+      <c r="I16" s="136">
         <f>D16*F16</f>
         <v>0.35</v>
       </c>
@@ -7491,19 +7921,19 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="145">
+      <c r="A18" s="135">
         <v>40</v>
       </c>
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="133">
         <v>0.5</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="139" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="59">
@@ -7511,7 +7941,7 @@
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="59"/>
-      <c r="I18" s="146">
+      <c r="I18" s="136">
         <f>D18*K11*100</f>
         <v>1.5</v>
       </c>
@@ -7609,7 +8039,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="130"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -7800,40 +8230,40 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="154">
+      <c r="D11" s="142">
         <v>2.25</v>
       </c>
-      <c r="E11" s="161">
+      <c r="E11" s="149">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157" t="s">
+      <c r="G11" s="143"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="J11" s="160">
+      <c r="J11" s="148">
         <f>(20^2-17^2)*3.1416*10^-6</f>
         <v>3.487176E-4</v>
       </c>
-      <c r="K11" s="158">
+      <c r="K11" s="146">
         <v>0.33500000000000002</v>
       </c>
-      <c r="L11" s="152">
+      <c r="L11" s="140">
         <v>7850</v>
       </c>
-      <c r="M11" s="159">
+      <c r="M11" s="147">
         <v>1</v>
       </c>
-      <c r="N11" s="154">
+      <c r="N11" s="142">
         <f>E11*D11*M11</f>
         <v>0.50624999999999998</v>
       </c>
@@ -7950,7 +8380,7 @@
       <c r="C16" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="163">
+      <c r="D16" s="151">
         <v>0.15</v>
       </c>
       <c r="E16" s="28" t="s">
@@ -8682,7 +9112,7 @@
       <c r="C3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="172" t="s">
+      <c r="D3" s="158" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10"/>
@@ -8754,7 +9184,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -8873,41 +9303,41 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="132" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="133">
+      <c r="C11" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="123">
         <v>2.25</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="124">
         <f>J11*K11*L11</f>
         <v>0.35986148351999997</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="J11" s="170">
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="156">
         <f xml:space="preserve"> 3.1416*16^2*10^-6</f>
         <v>8.0424959999999992E-4</v>
       </c>
-      <c r="K11" s="139">
+      <c r="K11" s="129">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L11" s="131">
+      <c r="L11" s="121">
         <v>7850</v>
       </c>
-      <c r="M11" s="140">
+      <c r="M11" s="130">
         <v>1</v>
       </c>
-      <c r="N11" s="133">
+      <c r="N11" s="123">
         <f>D11*E11</f>
         <v>0.80968833791999995</v>
       </c>
@@ -8984,27 +9414,27 @@
       <c r="N14" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="145">
+      <c r="A15" s="135">
         <v>10</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D15" s="18">
         <v>1.3</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="145">
+      <c r="F15" s="135">
         <v>1</v>
       </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="162">
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="150">
         <f>D15*F15</f>
         <v>1.3</v>
       </c>
@@ -9015,14 +9445,14 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="145">
+      <c r="A16" s="135">
         <v>20</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="134" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" s="18">
         <v>0.04</v>
@@ -9030,17 +9460,17 @@
       <c r="E16" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="171">
+      <c r="F16" s="157">
         <f>(1.6^2-1.5^2)*3.1416*0.7 + (1.6^2-1.2^2)*3.1416*1.8 + (1.6^2-1.5^2)*3.1416*1.6 + 3.1416*4.2</f>
         <v>21.768146400000006</v>
       </c>
       <c r="G16" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="145">
+      <c r="H16" s="135">
         <v>3</v>
       </c>
-      <c r="I16" s="162">
+      <c r="I16" s="150">
         <f>D16*F16*H16</f>
         <v>2.6121775680000008</v>
       </c>
@@ -9051,7 +9481,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="145">
+      <c r="A17" s="135">
         <v>30</v>
       </c>
       <c r="B17" s="94" t="s">
@@ -9063,15 +9493,15 @@
       <c r="D17" s="18">
         <v>0.65</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E17" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F17" s="135">
         <v>1</v>
       </c>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="162">
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="150">
         <f>IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>0.65</v>
       </c>
@@ -9082,14 +9512,14 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="145">
+      <c r="A18" s="135">
         <v>40</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="134" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="18">
         <v>0.04</v>
@@ -9097,17 +9527,17 @@
       <c r="E18" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="171">
+      <c r="F18" s="157">
         <f>(1.6^2-0.8^2)*3.1416 + 1.4*3.1416*0.6^2</f>
         <v>7.6152384000000009</v>
       </c>
       <c r="G18" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="145">
+      <c r="H18" s="135">
         <v>3</v>
       </c>
-      <c r="I18" s="162">
+      <c r="I18" s="150">
         <f>D18*F18*H18</f>
         <v>0.91382860799999999</v>
       </c>
@@ -9162,7 +9592,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -9179,16 +9609,16 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:N19"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9219,7 +9649,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="12">
-        <f>N12+I19</f>
+        <f>N13+I21</f>
         <v>9.1730310028800002</v>
       </c>
     </row>
@@ -9256,7 +9686,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="87"/>
@@ -9278,7 +9708,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="87"/>
@@ -9305,7 +9735,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -9424,176 +9854,173 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="133">
+      <c r="D11" s="123">
         <v>2.25</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="124">
         <f>J11*K11*L11</f>
         <v>0.53979222528000004</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137" t="s">
-        <v>224</v>
-      </c>
-      <c r="J11" s="170">
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" s="156">
         <f xml:space="preserve"> 3.1416*0.024^2</f>
         <v>1.8095616000000001E-3</v>
       </c>
-      <c r="K11" s="139">
+      <c r="K11" s="129">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L11" s="131">
+      <c r="L11" s="121">
         <v>7850</v>
       </c>
-      <c r="M11" s="140">
+      <c r="M11" s="130">
         <v>1</v>
       </c>
-      <c r="N11" s="133">
+      <c r="N11" s="123">
         <f>D11*E11</f>
         <v>1.2145325068800001</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="76" t="s">
+      <c r="A12" s="27">
+        <v>20</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="65">
+        <v>10</v>
+      </c>
+      <c r="E12" s="162">
+        <f>57*10^-4</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53">
+        <f>57*10^-4</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55">
+        <f>E12*D12</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N13" s="78">
         <f>SUM(N11:N11)</f>
         <v>1.2145325068800001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B15" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C15" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D15" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E15" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G15" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H15" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="145">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>10</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C16" s="163" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="35">
         <v>1.3</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E16" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="145">
+      <c r="F16" s="31">
         <v>1</v>
       </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="162">
-        <f>D15*F15</f>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32">
+        <f>D16*F16</f>
         <v>1.3</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="145">
-        <v>20</v>
-      </c>
-      <c r="B16" s="144" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="E16" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="171">
-        <f>2.1^2*3.1416*0.7 + 2^2*3.1416*2</f>
-        <v>34.830919199999997</v>
-      </c>
-      <c r="G16" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="145">
-        <v>3</v>
-      </c>
-      <c r="I16" s="162">
-        <f>D16*F16*H16</f>
-        <v>4.1797103040000003</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -9602,29 +10029,34 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="145">
-        <v>30</v>
-      </c>
-      <c r="B17" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.65</v>
-      </c>
-      <c r="E17" s="144" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="145">
-        <v>1</v>
-      </c>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="162">
-        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
-        <v>0.65</v>
+      <c r="A17" s="31">
+        <v>20</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="36">
+        <f>2.1^2*3.1416*0.7 + 2^2*3.1416*2</f>
+        <v>34.830919199999997</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="31">
+        <v>3</v>
+      </c>
+      <c r="I17" s="32">
+        <f>D17*F17*H17</f>
+        <v>4.1797103040000003</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -9633,34 +10065,29 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="145">
-        <v>40</v>
-      </c>
-      <c r="B18" s="144" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="171">
-        <f>2.1^2*3.1416*1.1</f>
-        <v>15.239901600000001</v>
-      </c>
-      <c r="G18" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="145">
-        <v>3</v>
-      </c>
-      <c r="I18" s="162">
-        <f>D18*F18*H18</f>
-        <v>1.8287881920000002</v>
+      <c r="A18" s="31">
+        <v>30</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>0.65</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -9668,26 +10095,94 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="76" t="s">
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>40</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="36">
+        <f>2.1^2*3.1416*1.1</f>
+        <v>15.239901600000001</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="31">
+        <v>3</v>
+      </c>
+      <c r="I19" s="32">
+        <f>D19*F19*H19</f>
+        <v>1.8287881920000002</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>50</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="37">
+        <v>5.25</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="38">
+        <f>E12</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32">
+        <f>D20*F20</f>
+        <v>2.9925E-2</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="77">
-        <f>SUM(I15:I18)</f>
+      <c r="I21" s="77">
+        <f>SUM(I16:I19)</f>
         <v>7.9584984960000007</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9713,7 +10208,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -9730,10 +10225,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:N19"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9771,7 +10266,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="12">
-        <f>N12+I19</f>
+        <f>N13+I21</f>
         <v>1.3271904506699999</v>
       </c>
     </row>
@@ -9783,7 +10278,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="130"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -9826,7 +10321,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="87"/>
@@ -9853,7 +10348,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -9894,8 +10389,8 @@
       <c r="A8" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="178" t="s">
-        <v>231</v>
+      <c r="B8" s="160" t="s">
+        <v>230</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -9974,173 +10469,175 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="133">
+      <c r="D11" s="123">
         <v>2.25</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="124">
         <f>J11*K11*L11</f>
         <v>0.11386242251999998</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137" t="s">
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="179">
+      <c r="J11" s="161">
         <f xml:space="preserve"> 3.1416*(0.0075^2-0.006^2)</f>
         <v>6.3617399999999985E-5</v>
       </c>
-      <c r="K11" s="139">
+      <c r="K11" s="129">
         <v>0.22800000000000001</v>
       </c>
-      <c r="L11" s="131">
+      <c r="L11" s="121">
         <v>7850</v>
       </c>
-      <c r="M11" s="140">
+      <c r="M11" s="130">
         <v>1</v>
       </c>
-      <c r="N11" s="133">
+      <c r="N11" s="123">
         <f>D11*E11</f>
         <v>0.25619045066999996</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="76" t="s">
+      <c r="A12" s="27">
+        <v>20</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="65">
+        <v>10</v>
+      </c>
+      <c r="E12" s="53">
+        <f>90*10^-4</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53">
+        <f>90*10^-4</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55">
+        <f>E12*D12</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N13" s="78">
         <f>SUM(N11:N11)</f>
         <v>0.25619045066999996</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B15" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C15" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D15" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E15" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G15" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H15" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="145">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="135">
         <v>10</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B16" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C16" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="18">
         <v>1.3</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E16" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="145">
+      <c r="F16" s="135">
         <v>0.5</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G16" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="145"/>
-      <c r="I15" s="162">
-        <f>D15*F15</f>
+      <c r="H16" s="135"/>
+      <c r="I16" s="150">
+        <f>D16*F16</f>
         <v>0.65</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="145">
-        <v>20</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="143">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="146">
-        <f>F16*D16</f>
-        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -10149,31 +10646,29 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="145">
-        <v>30</v>
-      </c>
-      <c r="B17" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="148" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.65</v>
-      </c>
-      <c r="E17" s="144" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="162">
-        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
-        <v>0.32500000000000001</v>
+      <c r="A17" s="135">
+        <v>20</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="133">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="136">
+        <f>F17*D17</f>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -10182,29 +10677,31 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="145">
-        <v>40</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="148" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="143">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="29">
-        <v>4.7</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="146">
-        <f>F18*D18</f>
-        <v>4.7E-2</v>
+      <c r="A18" s="135">
+        <v>30</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="135">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="135"/>
+      <c r="I18" s="150">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -10213,25 +10710,88 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="76" t="s">
+      <c r="A19" s="135">
+        <v>40</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="133">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="136">
+        <f>F19*D19</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="159">
+        <v>50</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="37">
+        <v>5.25</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="69">
+        <f>E12</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32">
+        <f>D20*F20</f>
+        <v>4.7250000000000007E-2</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="77">
-        <f>SUM(I15:I18)</f>
+      <c r="I21" s="77">
+        <f>SUM(I16:I19)</f>
         <v>1.071</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ST - Steering System/Cost/Bon_cost_steering.xlsx
+++ b/ST - Steering System/Cost/Bon_cost_steering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ST A0100" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,14 @@
     <sheet name="ST 02004" sheetId="22" r:id="rId22"/>
     <sheet name="ST 02004 Drawing" sheetId="23" r:id="rId23"/>
     <sheet name="ST 02005" sheetId="24" r:id="rId24"/>
+    <sheet name="ST A0300" sheetId="25" r:id="rId25"/>
+    <sheet name="ST 03001" sheetId="26" r:id="rId26"/>
+    <sheet name="ST 03002" sheetId="27" r:id="rId27"/>
+    <sheet name="ST 03003" sheetId="28" r:id="rId28"/>
+    <sheet name="ST A0400" sheetId="29" r:id="rId29"/>
+    <sheet name="ST 04001" sheetId="30" r:id="rId30"/>
+    <sheet name="ST 04002" sheetId="31" r:id="rId31"/>
+    <sheet name="ST 04002 Drawing" sheetId="32" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="BR_A0001_f">'ST A0200'!$J$39</definedName>
@@ -44,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="325">
   <si>
     <t>University</t>
   </si>
@@ -803,13 +811,229 @@
   </si>
   <si>
     <t>To install the fastener 10</t>
+  </si>
+  <si>
+    <t>Quick Release Steel Sleeve</t>
+  </si>
+  <si>
+    <t>Quick Release Fixed Part</t>
+  </si>
+  <si>
+    <t>Quick Release Sliding Part</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Compression enabled</t>
+  </si>
+  <si>
+    <t>Ball Bearing</t>
+  </si>
+  <si>
+    <t>Quick Release locking</t>
+  </si>
+  <si>
+    <t>Assembling of Sliding and Fixed Pard</t>
+  </si>
+  <si>
+    <t>Assembling of the Steel Sleeve and the Fixed part</t>
+  </si>
+  <si>
+    <t>Retaining Ring, Internal</t>
+  </si>
+  <si>
+    <t>Locking of the quick release</t>
+  </si>
+  <si>
+    <t>Quick Release</t>
+  </si>
+  <si>
+    <t>ST 03001</t>
+  </si>
+  <si>
+    <t>Circular area, diam. 25mm</t>
+  </si>
+  <si>
+    <t>Setup for machining</t>
+  </si>
+  <si>
+    <t>Material removal, radius</t>
+  </si>
+  <si>
+    <t>Material : Steel</t>
+  </si>
+  <si>
+    <t>Material removal, lenght</t>
+  </si>
+  <si>
+    <t>Prepare the machine for shoulder 1</t>
+  </si>
+  <si>
+    <t>Shoulder 1</t>
+  </si>
+  <si>
+    <t>Prepare the machine for shoulder 2</t>
+  </si>
+  <si>
+    <t>Shoulder 2</t>
+  </si>
+  <si>
+    <t>Prepare setup broaching machine</t>
+  </si>
+  <si>
+    <t>Broaching the splines</t>
+  </si>
+  <si>
+    <t>Anodize</t>
+  </si>
+  <si>
+    <t>Hard Anodizing</t>
+  </si>
+  <si>
+    <t>$              -</t>
+  </si>
+  <si>
+    <t>ST 03002</t>
+  </si>
+  <si>
+    <t>Aluminium, normal (per kg)</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Circular area diam. 71mm</t>
+  </si>
+  <si>
+    <t>Material removal</t>
+  </si>
+  <si>
+    <t>Material : Aluminum</t>
+  </si>
+  <si>
+    <t>Driller setup</t>
+  </si>
+  <si>
+    <t>Internal Splines</t>
+  </si>
+  <si>
+    <t>Hard anodizing</t>
+  </si>
+  <si>
+    <t>Circular area diam. 60mm</t>
+  </si>
+  <si>
+    <t>drill 9 holes</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Steering Wheel</t>
+  </si>
+  <si>
+    <t>Sheet for the structure 2 mm thickness</t>
+  </si>
+  <si>
+    <t>Rectangular area 250mm x 230mm</t>
+  </si>
+  <si>
+    <t>Foam, Expanding, Non-Structural (per kg)</t>
+  </si>
+  <si>
+    <t>Foam for torus form</t>
+  </si>
+  <si>
+    <t>Fabric (per m^2)</t>
+  </si>
+  <si>
+    <t>steering wheel covering</t>
+  </si>
+  <si>
+    <t>Adhesive</t>
+  </si>
+  <si>
+    <t>Steering wheel covering - Cost included in process</t>
+  </si>
+  <si>
+    <t>Setup for laser cut</t>
+  </si>
+  <si>
+    <t>Outline and holes for sheet</t>
+  </si>
+  <si>
+    <t>Assemble of foam</t>
+  </si>
+  <si>
+    <t>Cut (scissors, knife)</t>
+  </si>
+  <si>
+    <t>Preparation of covering</t>
+  </si>
+  <si>
+    <t>Liquid Applicator Gun</t>
+  </si>
+  <si>
+    <t>Apply of covering</t>
+  </si>
+  <si>
+    <t>Assemble of covering</t>
+  </si>
+  <si>
+    <t>Steering Wheel Assy</t>
+  </si>
+  <si>
+    <t>Aluminium spacer</t>
+  </si>
+  <si>
+    <t>ST 03003</t>
+  </si>
+  <si>
+    <t>ST_04001</t>
+  </si>
+  <si>
+    <t>Aluminum, Normal (per kg)</t>
+  </si>
+  <si>
+    <t>Sheet of aluminium for the shift plate</t>
+  </si>
+  <si>
+    <t>Rectangular area, 55x55 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up </t>
+  </si>
+  <si>
+    <t>ST 04002</t>
+  </si>
+  <si>
+    <t>To fix the Steering Wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Release </t>
+  </si>
+  <si>
+    <t>ST A0300</t>
+  </si>
+  <si>
+    <t>ST A0400</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 6.35 mm</t>
+  </si>
+  <si>
+    <t>For process 10</t>
+  </si>
+  <si>
+    <t>To fix the steering Wheel with the part 10, the Quick Release and the shifter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="22">
+  <numFmts count="26">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -830,10 +1054,14 @@
     <numFmt numFmtId="179" formatCode="#,##0.0000"/>
     <numFmt numFmtId="180" formatCode="0.0000"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="184" formatCode="_-[$$-2009]* #,##0.00_-;\-[$$-2009]* #,##0.00_-;_-[$$-2009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="183" formatCode="_-[$$-2009]* #,##0.00_-;\-[$$-2009]* #,##0.00_-;_-[$$-2009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="#,##0.000"/>
+    <numFmt numFmtId="187" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,8 +1160,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +1204,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor rgb="FFFCD5B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFAC090"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1180,7 +1442,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1202,8 +1464,10 @@
     <xf numFmtId="175" fontId="8" fillId="0" borderId="11">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1432,15 +1696,15 @@
     <xf numFmtId="11" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="14" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
@@ -1473,8 +1737,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="3" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="8" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Cost_Red" xfId="10"/>
     <cellStyle name="Cost_Yellow" xfId="9"/>
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1482,8 +1834,10 @@
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Monétaire 10" xfId="3"/>
     <cellStyle name="Monétaire 2" xfId="6"/>
+    <cellStyle name="Monétaire 4 3" xfId="14"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="13"/>
     <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal_Sheet1" xfId="7"/>
     <cellStyle name="Style 1" xfId="11"/>
@@ -1798,6 +2152,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457591</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>541385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9966960" y="3984024"/>
+          <a:ext cx="4145671" cy="3872561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>107450</xdr:rowOff>
@@ -1842,7 +2245,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1891,7 +2294,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1940,7 +2343,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1972,49 +2375,6 @@
         <a:xfrm>
           <a:off x="0" y="190499"/>
           <a:ext cx="7391400" cy="5227333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533872</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76530</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>84108</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10424632" y="2286000"/>
-          <a:ext cx="2712578" cy="2370108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,6 +2439,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533872</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76530</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424632" y="2286000"/>
+          <a:ext cx="2712578" cy="2370108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2118,7 +2521,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2156,6 +2559,147 @@
         <a:xfrm>
           <a:off x="9845778" y="2918460"/>
           <a:ext cx="1972842" cy="2126226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592449</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212580" y="3040381"/>
+          <a:ext cx="3122289" cy="1950720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="2645805"/>
+          <a:ext cx="2346960" cy="1821077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="320041"/>
+          <a:ext cx="6705600" cy="4817000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2803,7 +3347,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3268,14 +3812,14 @@
       </c>
       <c r="C18" s="8">
         <f>'ST 01010'!N2</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
       </c>
       <c r="E18" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -4536,7 +5080,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A18" sqref="A18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5109,15 +5653,16 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -5147,8 +5692,8 @@
         <v>21</v>
       </c>
       <c r="N2" s="12">
-        <f>N13+I20</f>
-        <v>0</v>
+        <f>N12+I18</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -5225,7 +5770,7 @@
       </c>
       <c r="N5" s="12">
         <f>N2*N3</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -5348,119 +5893,169 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="49">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="50">
+        <f>J11*K11*L11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="51">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L11" s="54">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="54">
+        <v>1</v>
+      </c>
+      <c r="N11" s="55">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>4.2</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="78">
+        <f>SUM(N11:N11)</f>
+        <v>4.2</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="76" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="78">
-        <f>SUM(N11:N12)</f>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="135">
+        <v>10</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="196" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="135">
+        <v>1</v>
+      </c>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="150">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>20</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="157"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="150">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -5468,15 +6063,26 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="15">
+        <v>30</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="232">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="150">
+        <f>F17*D17</f>
+        <v>0</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -5484,60 +6090,28 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="77">
+        <f>SUM(I15:I17)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="77">
-        <f>SUM(I16:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
+      <c r="B20" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6126,8 +6700,8 @@
   </sheetPr>
   <dimension ref="A2:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7221,7 +7795,7 @@
       <c r="M41" s="93"/>
       <c r="N41" s="93"/>
     </row>
-    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <v>10</v>
       </c>
@@ -7247,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="55">
-        <f>F42*D42/G42</f>
+        <f t="shared" ref="I42:I47" si="0">F42*D42/G42</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J42" s="115"/>
@@ -7256,7 +7830,7 @@
       <c r="M42" s="93"/>
       <c r="N42" s="93"/>
     </row>
-    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <v>20</v>
       </c>
@@ -7282,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="55">
-        <f>F43*D43/G43</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J43" s="109"/>
@@ -7291,7 +7865,7 @@
       <c r="M43" s="93"/>
       <c r="N43" s="93"/>
     </row>
-    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>30</v>
       </c>
@@ -7317,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="55">
-        <f>F44*D44/G44</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J44" s="109"/>
@@ -7326,7 +7900,7 @@
       <c r="M44" s="93"/>
       <c r="N44" s="93"/>
     </row>
-    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <v>40</v>
       </c>
@@ -7352,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="55">
-        <f>F45*D45/G45</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J45" s="109"/>
@@ -7361,7 +7935,7 @@
       <c r="M45" s="93"/>
       <c r="N45" s="93"/>
     </row>
-    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <v>50</v>
       </c>
@@ -7387,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="55">
-        <f>F46*D46/G46</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J46" s="109"/>
@@ -7396,7 +7970,7 @@
       <c r="M46" s="93"/>
       <c r="N46" s="93"/>
     </row>
-    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="39">
         <v>60</v>
       </c>
@@ -7422,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="55">
-        <f>F47*D47/G47</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J47" s="109"/>
@@ -7461,6 +8035,7 @@
     <hyperlink ref="B14" location="'ST 02005'!A1" display="Steering Bore support"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7472,7 +8047,7 @@
   <dimension ref="A2:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9612,7 +10187,7 @@
   <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10227,8 +10802,8 @@
   </sheetPr>
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10800,6 +11375,3396 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="185" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="106">
+        <v>81</v>
+      </c>
+      <c r="L2" s="93"/>
+      <c r="M2" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="112">
+        <f>E13+N18+I23+J27+I31</f>
+        <v>43.029432899961208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="112">
+        <f>N3*N2</f>
+        <v>43.029432899961208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="186" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>10</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="35">
+        <f>'ST 03001'!N2</f>
+        <v>12.884957426641209</v>
+      </c>
+      <c r="D10" s="173">
+        <v>1</v>
+      </c>
+      <c r="E10" s="174">
+        <f>C10*D10</f>
+        <v>12.884957426641209</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>20</v>
+      </c>
+      <c r="B11" s="175" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="35">
+        <f>'ST 03002'!N2</f>
+        <v>15.469065601320001</v>
+      </c>
+      <c r="D11" s="173">
+        <v>1</v>
+      </c>
+      <c r="E11" s="174">
+        <f>C11*D11</f>
+        <v>15.469065601320001</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>30</v>
+      </c>
+      <c r="B12" s="175" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="35">
+        <f>'ST 03003'!N2</f>
+        <v>12.940409872</v>
+      </c>
+      <c r="D12" s="173">
+        <v>1</v>
+      </c>
+      <c r="E12" s="174">
+        <f>C12*D12</f>
+        <v>12.940409872</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="188">
+        <f>SUM(E10:E12)</f>
+        <v>41.294432899961208</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>10</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="54">
+        <v>1</v>
+      </c>
+      <c r="N16" s="178">
+        <f>IF(J16="",D16*M16,D16*J16*K16*L16*M16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>20</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="54">
+        <v>4</v>
+      </c>
+      <c r="N17" s="178">
+        <f>IF(J17="",D17*M17,D17*J17*K17*L17*M17)</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="188">
+        <f>SUM(N16:N17)</f>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>10</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="173" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0.19</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="39">
+        <v>1</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="35">
+        <f>D21*F21*H21</f>
+        <v>0.19</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
+        <v>20</v>
+      </c>
+      <c r="B22" s="173" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="173" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="39">
+        <v>1</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
+      <c r="I22" s="35">
+        <f>D22*F22*H22</f>
+        <v>0.13</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="188">
+        <f>SUM(I21:I22)</f>
+        <v>0.32</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="39">
+        <v>10</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="35">
+        <f>0.00018*(E26^2)+0.013</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="E26" s="39">
+        <v>30</v>
+      </c>
+      <c r="F26" s="180" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="181">
+        <v>1</v>
+      </c>
+      <c r="J26" s="178">
+        <f>D26*I26</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="189">
+        <f>SUM(J26:J26)</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="189">
+        <f>SUM(I30:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" location="'ST 03002'!A1" display="Quick Release Fixed Part"/>
+    <hyperlink ref="B12" location="'ST 03003'!A1" display="Quick Release Sliding Part"/>
+    <hyperlink ref="B10" location="'ST 03001'!A1" display="Quick Release Steel Sleeve"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:N25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="224" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="219" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="190">
+        <f>N12+I25</f>
+        <v>12.884957426641209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="219" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="190">
+        <f>N2*N3</f>
+        <v>12.884957426641209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="220" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="220" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="220" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="220" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="E11" s="19">
+        <f>J11*K11*L11</f>
+        <v>0.48166996739609136</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="193" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="194">
+        <f>PI()*12.5*12.5/1000000</f>
+        <v>4.9087385212340522E-4</v>
+      </c>
+      <c r="K11" s="195">
+        <v>0.125</v>
+      </c>
+      <c r="L11" s="23">
+        <v>7850</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>1.0837574266412056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="222">
+        <f>SUM(N11:N11)</f>
+        <v>1.0837574266412056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="220" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="220" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="220" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="220" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="135">
+        <v>10</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="196" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="135">
+        <v>1</v>
+      </c>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="150">
+        <f t="shared" ref="I15:I23" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="135">
+        <v>20</v>
+      </c>
+      <c r="B16" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="196" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="135">
+        <v>49</v>
+      </c>
+      <c r="G16" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="135">
+        <v>3</v>
+      </c>
+      <c r="I16" s="150">
+        <f t="shared" si="0"/>
+        <v>5.88</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="135">
+        <v>30</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="196" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E17" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="135">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="135">
+        <v>3</v>
+      </c>
+      <c r="I17" s="150">
+        <f t="shared" si="0"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="135">
+        <v>40</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="196" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="135">
+        <v>1</v>
+      </c>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135">
+        <v>1</v>
+      </c>
+      <c r="I18" s="150">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="135">
+        <v>50</v>
+      </c>
+      <c r="B19" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="196" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="135">
+        <v>5.53</v>
+      </c>
+      <c r="G19" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" s="135">
+        <v>3</v>
+      </c>
+      <c r="I19" s="150">
+        <f t="shared" si="0"/>
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="135">
+        <v>60</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="196" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="E20" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="135">
+        <v>1</v>
+      </c>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135">
+        <v>1</v>
+      </c>
+      <c r="I20" s="150">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="135">
+        <v>70</v>
+      </c>
+      <c r="B21" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="196" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="135">
+        <v>5.53</v>
+      </c>
+      <c r="G21" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" s="135">
+        <v>3</v>
+      </c>
+      <c r="I21" s="150">
+        <f t="shared" si="0"/>
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="135">
+        <v>80</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="196" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="E22" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="135">
+        <v>1</v>
+      </c>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135">
+        <v>1</v>
+      </c>
+      <c r="I22" s="150">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>90</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="150">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>100</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="197" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="223">
+        <f>SUM(I15:I24)</f>
+        <v>11.801200000000003</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="'ST A0300'!A1" display="Quick Release"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="224" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="219" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="190">
+        <f>N12+I22</f>
+        <v>15.469065601320001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="219" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="190">
+        <f>N2*N3</f>
+        <v>15.469065601320001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="220" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="220" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="220" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="220" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="19">
+        <f>J11*K11*L11</f>
+        <v>0.59025371459999987</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" s="22">
+        <f>3.14*0.0355^2</f>
+        <v>3.9571849999999993E-3</v>
+      </c>
+      <c r="K11" s="195">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L11" s="23">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>2.4790656013199994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="222">
+        <f>SUM(N11:N11)</f>
+        <v>2.4790656013199994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="220" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="220" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="220" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="220" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="135">
+        <v>10</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="196" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="135">
+        <v>1</v>
+      </c>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="150">
+        <f t="shared" ref="I15:I20" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="135">
+        <v>20</v>
+      </c>
+      <c r="B16" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="196" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="135">
+        <v>151</v>
+      </c>
+      <c r="G16" s="196" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="135">
+        <v>1</v>
+      </c>
+      <c r="I16" s="150">
+        <f t="shared" si="0"/>
+        <v>6.04</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="135">
+        <v>30</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="196" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E17" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="135">
+        <v>1</v>
+      </c>
+      <c r="G17" s="196"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="150">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="135">
+        <v>40</v>
+      </c>
+      <c r="B18" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="196"/>
+      <c r="D18" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="135">
+        <v>3</v>
+      </c>
+      <c r="G18" s="196"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="150">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="135">
+        <v>50</v>
+      </c>
+      <c r="B19" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="196" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="135">
+        <v>1</v>
+      </c>
+      <c r="G19" s="196"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="150">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>60</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>70</v>
+      </c>
+      <c r="B21" s="198" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="223">
+        <f>SUM(I15:I21)</f>
+        <v>12.990000000000002</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="'ST A0300'!A1" display="Quick Release"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="224" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="219" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="190">
+        <f>N12+I19</f>
+        <v>12.940409872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="219" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="190">
+        <f>N2*N3</f>
+        <v>12.940409872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="220" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="220" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="220" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="220" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="199">
+        <f>J11*K11*L11</f>
+        <v>0.42152615999999998</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="J11" s="22">
+        <f>3.14*0.03^2</f>
+        <v>2.826E-3</v>
+      </c>
+      <c r="K11" s="195">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L11" s="23">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>1.7704098720000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="222">
+        <f>SUM(N11:N11)</f>
+        <v>1.7704098720000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="220" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="220" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="220" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="220" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="135">
+        <v>10</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="196" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="135">
+        <v>1</v>
+      </c>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="150">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="135">
+        <v>20</v>
+      </c>
+      <c r="B16" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="196" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="135">
+        <v>168</v>
+      </c>
+      <c r="G16" s="196" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="135">
+        <v>1</v>
+      </c>
+      <c r="I16" s="150">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>6.72</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="157">
+        <v>9</v>
+      </c>
+      <c r="G17" s="94"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="150">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>3.15</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>40</v>
+      </c>
+      <c r="B18" s="198" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="223">
+        <f>SUM(I15:I18)</f>
+        <v>11.17</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="'ST A0300'!A1" display="Quick Release"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="185" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="106">
+        <v>81</v>
+      </c>
+      <c r="L2" s="93"/>
+      <c r="M2" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="112">
+        <f>E12+N16+I21+J26+I30</f>
+        <v>22.099557203458168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="112">
+        <f>N3*N2</f>
+        <v>22.099557203458168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="186" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="18">
+        <f>'ST 04001'!N2</f>
+        <v>16.336187500000001</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="231">
+        <f>C10*D10</f>
+        <v>16.336187500000001</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>20</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="18">
+        <f>'ST 04002'!N2</f>
+        <v>3.0722072799999998</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="231">
+        <f>C11*D11</f>
+        <v>3.0722072799999998</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="82">
+        <f>SUM(E10:E11)</f>
+        <v>19.408394780000002</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="178"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="188">
+        <f>SUM(N15:N15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="46">
+        <v>10</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="214">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="18">
+        <f>F19*D19</f>
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="94">
+        <v>20</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="214">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="18">
+        <f>F20*D20</f>
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="82">
+        <f>SUM(I19:I20)</f>
+        <v>2.25</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>10</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="8">
+        <f>0.8/105154*E24^2*G24*SQRT(G24)+(0.003*EXP(0.319*E24))</f>
+        <v>0.11717308884809327</v>
+      </c>
+      <c r="E24" s="7">
+        <v>6</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="7">
+        <v>50</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="45">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" ref="J24:J25" si="0">I24*D24</f>
+        <v>0.35151926654427978</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>20</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="103">
+        <f>(0.009*EXP(0.2*E25))</f>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>6</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="45">
+        <v>3</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9643156913886801E-2</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="189">
+        <f>SUM(J24:J25)</f>
+        <v>0.44116242345816659</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="189">
+        <f>SUM(I29:I29)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" location="'ST 04001'!A1" display="Steering Wheel"/>
+    <hyperlink ref="B11" location="'ST 04002'!A1" display="Aluminium spacer"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11387,6 +15352,1279 @@
   <hyperlinks>
     <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
     <hyperlink ref="B4" location="'ST A0100'!A1" display="Steering Rack "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="224" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="219" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4">
+        <f>N15+I24</f>
+        <v>16.336187500000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="219" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="4">
+        <f>N2*N3</f>
+        <v>16.336187500000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="220" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="220" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="220" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="220" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="200">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="202">
+        <v>2.25</v>
+      </c>
+      <c r="E11" s="203">
+        <f>J11*K11*L11</f>
+        <v>0.90275000000000005</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7">
+        <v>230</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="204" t="s">
+        <v>294</v>
+      </c>
+      <c r="J11" s="22">
+        <f>250*230/1000000</f>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="K11" s="205">
+        <v>2E-3</v>
+      </c>
+      <c r="L11" s="23">
+        <v>7850</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>2.0311875000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="200">
+        <v>20</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="200" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="202">
+        <v>15</v>
+      </c>
+      <c r="E12" s="200">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="200" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="200"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="206"/>
+      <c r="L12" s="206"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="209">
+        <f>E12*D12</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="200">
+        <v>30</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="200" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="202">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="200">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="200" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="200"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="209">
+        <f>D13*E13</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="201" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="211">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="211"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="215" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="216">
+        <f>SUM(N11:N14)</f>
+        <v>3.7811875000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="220" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="220" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="220" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="220" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <f>D18*F18</f>
+        <v>1.3</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="200">
+        <v>20</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="212">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8">
+        <f>D19*F19*H19</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>30</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="213" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="214">
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="200">
+        <v>1</v>
+      </c>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="209">
+        <f>D20*F20</f>
+        <v>0.125</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="200">
+        <v>40</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="213" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="214">
+        <v>0.06</v>
+      </c>
+      <c r="E21" s="200" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="200">
+        <v>100</v>
+      </c>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="209">
+        <f>D21*F21</f>
+        <v>6</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="200">
+        <v>50</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="213" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="214">
+        <v>0.02</v>
+      </c>
+      <c r="E22" s="200" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="200">
+        <v>100</v>
+      </c>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="209">
+        <f>D22*F22</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="211">
+        <v>0.13</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="211">
+        <f>D23*F23</f>
+        <v>0.13</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="225" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="226">
+        <f>SUM(I18:I23)</f>
+        <v>12.555000000000001</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="'ST A0400'!A1" display="Steering Wheel Assy"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="224" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="219" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4">
+        <f>N12+I17</f>
+        <v>3.0722072799999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="219" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="219" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="4">
+        <f>N2*N3</f>
+        <v>3.0722072799999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="220" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="220" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="220" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="220" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="217">
+        <f>J11*K11*L11</f>
+        <v>0.14766839999999998</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" s="22">
+        <f>55*55*0.000001</f>
+        <v>3.0249999999999999E-3</v>
+      </c>
+      <c r="K11" s="195">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L11" s="23">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>0.62020728000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="228">
+        <f>SUM(N11:N11)</f>
+        <v>0.62020728000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="220" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="220" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="220" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="220" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="218" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="24">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>20</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="214">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="24">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>1.1520000000000001</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="229">
+        <f>SUM(I15:I16)</f>
+        <v>2.452</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" location="BOM!A1" display="Back to BOM"/>
+    <hyperlink ref="B4" location="'ST A0400'!A1" display="Steering Wheel Assy"/>
+    <hyperlink ref="D3" location="'ST 04002 Drawing'!A1" display="FileLink1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'ST 04002'!A1" display="ST 04002"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11987,7 +17225,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:I19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14530,8 +19768,8 @@
   </sheetPr>
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
